--- a/Problem-Solving/Hamming-Algorithm/algo.xlsx
+++ b/Problem-Solving/Hamming-Algorithm/algo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Hamming Algorithm</t>
   </si>
@@ -45,6 +45,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>m</t>
     </r>
     <r>
@@ -60,6 +67,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>r</t>
     </r>
     <r>
@@ -77,7 +91,10 @@
     <t>Even Parity</t>
   </si>
   <si>
-    <t>data bits</t>
+    <t>data bits(correct)</t>
+  </si>
+  <si>
+    <t>data bits(error)</t>
   </si>
   <si>
     <t>p1</t>
@@ -827,41 +844,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -1403,14 +1423,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:T25"/>
+  <dimension ref="A2:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="17.4285714285714" customWidth="1"/>
     <col min="19" max="19" width="9.14285714285714" style="4"/>
   </cols>
@@ -1454,397 +1475,457 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:19">
+    <row r="8" spans="2:2">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:19">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E11" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G11" s="2">
         <v>6</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H11" s="2">
         <v>7</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I11" s="2">
         <v>8</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J11" s="2">
         <v>9</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K11" s="2">
         <v>10</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L11" s="2">
         <v>11</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M11" s="2">
         <v>12</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N11" s="2">
         <v>13</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O11" s="2">
         <v>14</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P11" s="2">
         <v>15</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q11" s="2">
         <v>16</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R11" s="2">
         <v>17</v>
       </c>
-      <c r="S9" s="10"/>
+      <c r="S11" s="12"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:19">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="11"/>
+    <row r="12" s="1" customFormat="1" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="11"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:19">
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="13" s="2" customFormat="1" spans="2:19">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="O13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="P13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="Q13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="10"/>
+      <c r="R13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="12"/>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:20">
-      <c r="A14" s="3" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3">
-        <f>B10</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <f>D10</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <f>F10</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <f>H10</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <f>J10</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <f>L10</f>
-        <v>1</v>
-      </c>
-      <c r="N14" s="3">
-        <f>N10</f>
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
-        <f>P10</f>
-        <v>1</v>
-      </c>
-      <c r="R14" s="3">
-        <f>R10</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="12">
-        <f t="shared" ref="S14:S18" si="0">SUM(B14:R14)</f>
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="19:19">
-      <c r="S15" s="13"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:20">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3">
-        <f>C10</f>
-        <v>1</v>
+      <c r="B16" s="3">
+        <f>B12</f>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
-        <f>D10</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <f>G10</f>
-        <v>1</v>
+        <f>D12</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <f>F12</f>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
-        <f>H10</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <f>K10</f>
-        <v>1</v>
+        <f>H12</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <f>J12</f>
+        <v>0</v>
       </c>
       <c r="L16" s="3">
-        <f>L10</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
-        <f>O10</f>
-        <v>0</v>
+        <f>L12</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <f>N12</f>
+        <v>1</v>
       </c>
       <c r="P16" s="3">
-        <f>P10</f>
+        <f>P12</f>
         <v>1</v>
       </c>
       <c r="R16" s="3">
-        <f>R10</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>R12</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="13">
+        <f t="shared" ref="S16:S20" si="0">SUM(B16:R16)</f>
+        <v>5</v>
       </c>
       <c r="T16" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="19:19">
+      <c r="S17" s="14"/>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:20">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="3">
-        <f>E10</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <f>F10</f>
-        <v>0</v>
+      <c r="C18" s="3">
+        <f>C12</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <f>D12</f>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
-        <f>G10</f>
+        <f>G12</f>
         <v>1</v>
       </c>
       <c r="H18" s="3">
-        <f>H10</f>
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <f>M10</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <f>N10</f>
+        <f>H12</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <f>K12</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <f>L12</f>
         <v>1</v>
       </c>
       <c r="O18" s="3">
-        <f>O10</f>
+        <f>O12</f>
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <f>P10</f>
-        <v>1</v>
-      </c>
-      <c r="S18" s="12">
+        <f>P12</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <f>R12</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" spans="1:20">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="3">
-        <f>I10</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <f>J10</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <f>K10</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="3">
-        <f>L10</f>
+      <c r="E20" s="3">
+        <f>E12</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f>F12</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f>G12</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <f>H12</f>
         <v>1</v>
       </c>
       <c r="M20" s="3">
-        <f>M10</f>
+        <f>M12</f>
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <f>N10</f>
+        <f>N12</f>
         <v>1</v>
       </c>
       <c r="O20" s="3">
-        <f>O10</f>
+        <f>O12</f>
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <f>P10</f>
-        <v>1</v>
-      </c>
-      <c r="S20" s="12">
-        <f>SUM(B20:R20)</f>
+        <f>P12</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="T20" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" spans="1:20">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="3">
-        <f>Q10</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <f>R10</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="12">
+      <c r="I22" s="3">
+        <f t="shared" ref="I22:P22" si="1">I12</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="13">
         <f>SUM(B22:R22)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T22" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:20">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>Q12</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <f>R12</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="13">
+        <f>SUM(B24:R24)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>33</v>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
         <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
